--- a/data/trans_dic/P23_DUKE_AC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_AC_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social confidencial bajo</t>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,6%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>83,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>85,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>81,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>75,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>82,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>77,89%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>86,8%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 44,09</t>
+          <t>74,95; 89,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,52; 27,3</t>
+          <t>75,57; 87,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 34,34</t>
+          <t>73,78; 84,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,96; 88,66</t>
+          <t>82,09; 94,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,08; 24,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,74; 26,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,42; 39,08</t>
+          <t>61,51; 77,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>73,65; 84,35</t>
+          <t>78,69; 87,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,76; 30,4</t>
+          <t>71,42; 80,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 25,06</t>
+          <t>77,12; 90,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 32,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>77,83; 85,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>69,27; 81,49</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>79,09; 86,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>74,12; 81,43</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>81,96; 91,22</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>77,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>79,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>78,85%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>82,0%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>80,02%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>80,84%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,94; 18,12</t>
+          <t>68,38; 82,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 20,78</t>
+          <t>74,53; 83,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 20,24</t>
+          <t>74,19; 82,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>74,84; 82,98</t>
+          <t>70,59; 82,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 21,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,35; 16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 20,39</t>
+          <t>75,43; 84,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,65; 80,69</t>
+          <t>80,38; 87,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,56</t>
+          <t>77,76; 84,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 17,4</t>
+          <t>79,28; 87,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>75,22; 81,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>74,24; 82,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>78,82; 84,7</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>77,2; 82,58</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>76,85; 84,08</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>83,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>76,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>77,35%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>78,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>76,56%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>83,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>78,96%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>78,99%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 18,07</t>
+          <t>63,79; 76,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,64</t>
+          <t>78,41; 86,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 16,69</t>
+          <t>71,91; 80,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>61,74; 78,56</t>
+          <t>74,12; 84,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 13,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,99; 17,44</t>
+          <t>77,8; 86,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,79; 82,11</t>
+          <t>79,11; 86,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 14,66</t>
+          <t>77,23; 83,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,56</t>
+          <t>73,92; 82,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 16,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,15; 78,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>72,16; 80,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>80,31; 85,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>76,13; 81,6</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>75,68; 82,0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>77,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>81,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>80,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>84,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>77,31%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>78,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>83,15%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,3</t>
+          <t>72,51; 81,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,63; 18,47</t>
+          <t>70,82; 81,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,78; 82,07</t>
+          <t>74,84; 86,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 18,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 16,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,85; 21,54</t>
+          <t>72,85; 80,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,02; 80,51</t>
+          <t>75,27; 84,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 18,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 16,91</t>
+          <t>79,32; 88,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 19,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,06; 80,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>74,26; 80,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>74,67; 81,75</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>78,85; 86,52</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>76,47%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79,96%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>78,27%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80,78%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>78,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>80,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>77,42%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>81,57%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>79,2%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>81,91%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73,28; 79,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77,48; 82,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75,4; 80,71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>77,43; 83,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>75,97; 80,51</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81,14; 85,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78,14; 82,28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>80,41; 85,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>75,52; 79,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>79,79; 83,16</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>77,43; 80,81</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>80,2; 83,73</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social confidencial bajo (tasa de respuesta: 96,6%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>248226</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>358777</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>526258</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>367273</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>275800</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>446346</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>609445</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>467643</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>524026</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>805124</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1135703</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>834915</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>223072; 267490</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>331669; 383065</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>484297; 557831</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>339259; 391845</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>242405; 307058</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>419366; 468651</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>572520; 642406</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>423110; 497429</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>479180; 563672</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>768638; 842194</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1080728; 1187183</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>788401; 877503</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>449.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>543.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>786.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>976.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>689625</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>877428</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1174020</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>780425</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>766300</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>976845</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1160899</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>859420</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1455926</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1854274</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2334920</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1639845</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>609125; 733216</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>824497; 925318</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1109872; 1230437</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>710203; 827596</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>720923; 808314</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>928345; 1009441</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1105504; 1203463</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>810547; 896022</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1370753; 1519058</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1782257; 1915270</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2252526; 2409518</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1558856; 1705609</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>466.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>643.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>810.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>492060</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>657011</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>810596</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>629238</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>611671</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>738183</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>917188</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>686855</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1103732</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1395194</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1727782</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1316092</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>445720; 534699</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>620190; 688087</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>758826; 852350</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>588297; 667612</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>577965; 641401</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>703750; 770235</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>874876; 951431</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>644941; 723559</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1040318; 1155463</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1349704; 1442192</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1665687; 1785417</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1261064; 1366368</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>703.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1028671</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>580576</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>815397</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1004788</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>544717</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>768963</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2033460</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1125293</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1584360</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>962966; 1080291</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>536619; 618836</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>745593; 863178</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>948640; 1050451</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>510775; 574486</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>721227; 807380</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1953029; 2109383</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1072533; 1174130</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1502390; 1648669</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>826.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>974.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>986.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>794.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1005.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1257.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1278.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1005.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1831.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2231.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2264.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1799.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2458584</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2473792</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2510873</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2592332</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2658559</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2706091</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2687532</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2782882</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5117143</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5179883</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>5198406</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>5375213</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2355986; 2549160</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2397115; 2551850</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2418745; 2588853</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2484899; 2683808</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2578882; 2733264</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2641929; 2770769</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2622533; 2761405</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2696108; 2856926</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4992159; 5238745</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>5066382; 5280794</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5082603; 5303950</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>5262804; 5494652</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
